--- a/biology/Histoire de la zoologie et de la botanique/Masafumi_Matsui/Masafumi_Matsui.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Masafumi_Matsui/Masafumi_Matsui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur Masafumi Matsui est un herpétologue japonais qui enseigne à l’université de Kyoto.
 Il est président de la Société japonaise d'herpétologie (Herpetological Society of Japan)
@@ -512,7 +524,9 @@
           <t>Autres Matsui dans son entourage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Takaji Matsui et Masafumi Matsui ont publié ensemble "New Brown Frog (Genus Rana) from Honshu, Japan".
 Masamichi Matsui et Masafumi Matsui, ont coécrit "A Schlegel's green tree frog fallen from a high beech tree. Bulletin of the Herpetological Society of Japan. 2007"
@@ -544,7 +558,9 @@
           <t>Quelques espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ansonia inthanon Matsui, Nabhitabhata &amp; Panha, 1998
 Bufo torrenticola Matsui, 1976
@@ -582,10 +598,12 @@
           <t>Les espèces dédiées à Matsui</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cyrtodactylus matsuii
-Tropidophorus matsuii [1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus matsuii
+Tropidophorus matsuii </t>
         </is>
       </c>
     </row>
